--- a/Data/economic_indicators_data.xlsx
+++ b/Data/economic_indicators_data.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="18" documentId="11_2A91BCE9A6AF95B8C8E5626C02B46E49FE4A4B6E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74C7CA0A-97A3-46BD-912B-67CA274D2E6E}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -442,7 +442,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:E1048576"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
